--- a/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>326.29391633810258</v>
+        <v>326.2939163221015</v>
       </c>
       <c r="C2">
-        <v>291.0203437315057</v>
+        <v>291.02034370125631</v>
       </c>
       <c r="D2">
-        <v>248.04294132575649</v>
+        <v>248.04294123808984</v>
       </c>
       <c r="E2">
-        <v>254.73541149430756</v>
+        <v>254.73541150367623</v>
       </c>
       <c r="F2">
-        <v>239.01999215005608</v>
+        <v>239.01999212313589</v>
       </c>
       <c r="G2">
-        <v>280.92608391710587</v>
+        <v>280.92608389077589</v>
       </c>
       <c r="H2">
-        <v>292.15333875795938</v>
+        <v>292.15333873255292</v>
       </c>
       <c r="I2">
-        <v>340.53469352781303</v>
+        <v>340.53469352585842</v>
       </c>
       <c r="J2">
-        <v>305.07798355013119</v>
+        <v>305.07798354103682</v>
       </c>
       <c r="K2">
-        <v>309.39499327541955</v>
+        <v>309.39499324914823</v>
       </c>
       <c r="L2">
-        <v>313.9507877782379</v>
+        <v>313.95078773672935</v>
       </c>
       <c r="M2">
-        <v>333.49941564766937</v>
+        <v>333.49941559199783</v>
       </c>
       <c r="N2">
-        <v>285.29093083334044</v>
+        <v>285.29093073464242</v>
       </c>
       <c r="O2">
-        <v>265.62874102646367</v>
+        <v>265.6287409710601</v>
       </c>
       <c r="P2">
-        <v>261.43076653044864</v>
+        <v>261.4307664855836</v>
       </c>
       <c r="Q2">
-        <v>344.99120240926072</v>
+        <v>344.99120237693558</v>
       </c>
       <c r="R2">
-        <v>290.73128437066498</v>
+        <v>290.73128431545058</v>
       </c>
       <c r="S2">
-        <v>329.54582105729139</v>
+        <v>329.54582105721636</v>
       </c>
       <c r="T2">
-        <v>328.71396137076169</v>
+        <v>328.71396131608424</v>
       </c>
       <c r="U2">
-        <v>265.57666808015261</v>
+        <v>265.57666806431337</v>
       </c>
       <c r="V2">
-        <v>326.58640694016151</v>
+        <v>326.58640689790866</v>
       </c>
       <c r="W2">
-        <v>276.81464326622864</v>
+        <v>276.81464319522092</v>
       </c>
       <c r="X2">
-        <v>278.4251991405531</v>
+        <v>278.42519914230803</v>
       </c>
       <c r="Y2">
-        <v>250.00150867505741</v>
+        <v>250.00150865997458</v>
       </c>
       <c r="Z2">
-        <v>275.97818335156626</v>
+        <v>275.97818332889176</v>
       </c>
       <c r="AA2">
-        <v>334.67453238220048</v>
+        <v>334.67453237551001</v>
       </c>
       <c r="AB2">
-        <v>302.76597594096478</v>
+        <v>302.76597593710386</v>
       </c>
       <c r="AC2">
-        <v>265.27179883369479</v>
+        <v>265.2717987877113</v>
       </c>
       <c r="AD2">
-        <v>280.71284072128628</v>
+        <v>280.71284072838694</v>
       </c>
       <c r="AE2">
-        <v>269.1584963934522</v>
+        <v>269.1584963852851</v>
       </c>
       <c r="AF2">
-        <v>289.66154534456325</v>
+        <v>289.66154531942959</v>
       </c>
       <c r="AG2">
-        <v>289.97225180420469</v>
+        <v>289.97225165073138</v>
       </c>
       <c r="AH2">
-        <v>344.10411718251589</v>
+        <v>344.10411716573594</v>
       </c>
       <c r="AI2">
-        <v>285.35600756480852</v>
+        <v>285.35600756875408</v>
       </c>
       <c r="AJ2">
-        <v>301.50262945473719</v>
+        <v>301.50262938295879</v>
       </c>
       <c r="AK2">
-        <v>317.47854743918288</v>
+        <v>317.47854744866288</v>
       </c>
       <c r="AL2">
-        <v>341.27089340943371</v>
+        <v>341.2708933541237</v>
       </c>
       <c r="AM2">
-        <v>284.59560408405395</v>
+        <v>284.5956040154266</v>
       </c>
       <c r="AN2">
-        <v>262.21989171356341</v>
+        <v>262.21989162037539</v>
       </c>
       <c r="AO2">
-        <v>274.8417854734073</v>
+        <v>274.84178541042792</v>
       </c>
       <c r="AP2">
-        <v>339.85969353810322</v>
+        <v>339.85969349617238</v>
       </c>
       <c r="AQ2">
-        <v>297.51363848668893</v>
+        <v>297.51363840877923</v>
       </c>
       <c r="AR2">
-        <v>334.34733572503944</v>
+        <v>334.34733572353446</v>
       </c>
       <c r="AS2">
-        <v>332.96272087614301</v>
+        <v>332.96272082295559</v>
       </c>
       <c r="AT2">
-        <v>265.31886320916078</v>
+        <v>265.31886315560479</v>
       </c>
       <c r="AU2">
-        <v>323.86695764487069</v>
+        <v>323.86695759716184</v>
       </c>
       <c r="AV2">
-        <v>281.90584365634726</v>
+        <v>281.90584360961134</v>
       </c>
       <c r="AW2">
-        <v>281.54053062910629</v>
+        <v>281.54053058319073</v>
       </c>
       <c r="AX2">
-        <v>247.86347522321904</v>
+        <v>247.86347518075368</v>
       </c>
       <c r="AY2">
-        <v>271.26043132898872</v>
+        <v>271.26043130077551</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>328.33922706149491</v>
+        <v>328.33922706090158</v>
       </c>
       <c r="C3">
-        <v>308.20730669548391</v>
+        <v>308.20730669536795</v>
       </c>
       <c r="D3">
-        <v>264.36417175052236</v>
+        <v>264.36417169583825</v>
       </c>
       <c r="E3">
-        <v>256.45419770641098</v>
+        <v>256.45419770046823</v>
       </c>
       <c r="F3">
-        <v>255.32887527812051</v>
+        <v>255.32887527569761</v>
       </c>
       <c r="G3">
-        <v>280.83431744013217</v>
+        <v>280.83431744249845</v>
       </c>
       <c r="H3">
-        <v>286.63858562359519</v>
+        <v>286.63858554612091</v>
       </c>
       <c r="I3">
-        <v>344.67365734788496</v>
+        <v>344.67365736455201</v>
       </c>
       <c r="J3">
-        <v>308.07789687216342</v>
+        <v>308.07789685982056</v>
       </c>
       <c r="K3">
-        <v>293.18449280736809</v>
+        <v>293.18449276919165</v>
       </c>
       <c r="L3">
-        <v>322.29954045567428</v>
+        <v>322.2995404119722</v>
       </c>
       <c r="M3">
-        <v>325.18668994701807</v>
+        <v>325.18642421941615</v>
       </c>
       <c r="N3">
-        <v>308.98462488997177</v>
+        <v>308.9846248534343</v>
       </c>
       <c r="O3">
-        <v>261.16854875988764</v>
+        <v>261.16854873030132</v>
       </c>
       <c r="P3">
-        <v>296.08808047306246</v>
+        <v>296.08808042569541</v>
       </c>
       <c r="Q3">
-        <v>347.30439168182011</v>
+        <v>347.30439160176132</v>
       </c>
       <c r="R3">
-        <v>295.99799934338034</v>
+        <v>295.99799930273218</v>
       </c>
       <c r="S3">
-        <v>335.82773344135433</v>
+        <v>335.82773342217149</v>
       </c>
       <c r="T3">
-        <v>302.65770623482547</v>
+        <v>302.65770620445903</v>
       </c>
       <c r="U3">
-        <v>262.61777472866186</v>
+        <v>262.61777470120029</v>
       </c>
       <c r="V3">
-        <v>306.38474653588673</v>
+        <v>306.38474651097573</v>
       </c>
       <c r="W3">
-        <v>297.85096621177934</v>
+        <v>297.85096616539397</v>
       </c>
       <c r="X3">
-        <v>270.33686673914457</v>
+        <v>270.33686671305543</v>
       </c>
       <c r="Y3">
-        <v>253.07734887033652</v>
+        <v>253.07734882211213</v>
       </c>
       <c r="Z3">
-        <v>277.47018381673524</v>
+        <v>277.4701837841418</v>
       </c>
       <c r="AA3">
-        <v>343.21232963780994</v>
+        <v>343.21232963169848</v>
       </c>
       <c r="AB3">
-        <v>305.03979713744047</v>
+        <v>305.03979714265722</v>
       </c>
       <c r="AC3">
-        <v>272.09593068361369</v>
+        <v>272.09593064878806</v>
       </c>
       <c r="AD3">
-        <v>260.21506006569695</v>
+        <v>260.21506003804461</v>
       </c>
       <c r="AE3">
-        <v>266.00157583850239</v>
+        <v>266.00157583589566</v>
       </c>
       <c r="AF3">
-        <v>285.57561785906614</v>
+        <v>285.57561784556617</v>
       </c>
       <c r="AG3">
-        <v>293.76337272600892</v>
+        <v>293.76337269002886</v>
       </c>
       <c r="AH3">
-        <v>345.1157848681745</v>
+        <v>345.1157848571853</v>
       </c>
       <c r="AI3">
-        <v>317.69547558087606</v>
+        <v>317.69547552569566</v>
       </c>
       <c r="AJ3">
-        <v>305.25728820760446</v>
+        <v>305.25728818229231</v>
       </c>
       <c r="AK3">
-        <v>324.88920621684952</v>
+        <v>324.88920617780542</v>
       </c>
       <c r="AL3">
-        <v>334.84165160228747</v>
+        <v>334.84165159889596</v>
       </c>
       <c r="AM3">
-        <v>318.09569407024975</v>
+        <v>318.09569398032079</v>
       </c>
       <c r="AN3">
-        <v>261.79447033531727</v>
+        <v>261.79447028965973</v>
       </c>
       <c r="AO3">
-        <v>252.4080786389658</v>
+        <v>252.40807859596981</v>
       </c>
       <c r="AP3">
-        <v>347.57156674121745</v>
+        <v>347.57156672451208</v>
       </c>
       <c r="AQ3">
-        <v>303.11639068616012</v>
+        <v>303.11639062697122</v>
       </c>
       <c r="AR3">
-        <v>342.91914505710122</v>
+        <v>342.91914503356259</v>
       </c>
       <c r="AS3">
-        <v>312.93229159734199</v>
+        <v>312.9322915807266</v>
       </c>
       <c r="AT3">
-        <v>268.13321600198663</v>
+        <v>268.13321595604134</v>
       </c>
       <c r="AU3">
-        <v>309.6220839748558</v>
+        <v>309.62208395056746</v>
       </c>
       <c r="AV3">
-        <v>302.57753500405721</v>
+        <v>302.57753489584525</v>
       </c>
       <c r="AW3">
-        <v>282.14696351376546</v>
+        <v>282.146963483832</v>
       </c>
       <c r="AX3">
-        <v>281.22554640344282</v>
+        <v>281.22554638436634</v>
       </c>
       <c r="AY3">
-        <v>277.25452421623356</v>
+        <v>277.25452417886027</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>326.2939163221015</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>291.02034370125631</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>248.04294123808984</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>254.73541150367623</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>239.01999212313589</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>280.92608389077589</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>292.15333873255292</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>340.53469352585842</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>305.07798354103682</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>309.39499324914823</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>313.95078773672935</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>333.49941559199783</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>285.29093073464242</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>265.6287409710601</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>261.4307664855836</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>344.99120237693558</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>290.73128431545058</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>329.54582105721636</v>
@@ -588,55 +477,55 @@
         <v>275.97818332889176</v>
       </c>
       <c r="AA2">
-        <v>334.67453237551001</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>302.76597593710386</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>265.2717987877113</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>280.71284072838694</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>269.1584963852851</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>289.66154531942959</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>289.97225165073138</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>344.10411716573594</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>285.35600756875408</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>301.50262938295879</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>317.47854744866288</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>341.2708933541237</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>284.5956040154266</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>262.21989162037539</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>274.84178541042792</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>339.85969349617238</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>297.51363840877923</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>334.34733572353446</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>328.33922706090158</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>308.20730669536795</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>264.36417169583825</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>256.45419770046823</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>255.32887527569761</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>280.83431744249845</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>286.63858554612091</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>344.67365736455201</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>308.07789685982056</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>293.18449276919165</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>322.2995404119722</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>325.18642421941615</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>308.9846248534343</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>261.16854873030132</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>296.08808042569541</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>347.30439160176132</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>295.99799930273218</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>335.82773342217149</v>
@@ -743,55 +629,55 @@
         <v>277.4701837841418</v>
       </c>
       <c r="AA3">
-        <v>343.21232963169848</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>305.03979714265722</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>272.09593064878806</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>260.21506003804461</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>266.00157583589566</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>285.57561784556617</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>293.76337269002886</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>345.1157848571853</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>317.69547552569566</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>305.25728818229231</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>324.88920617780542</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>334.84165159889596</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>318.09569398032079</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>261.79447028965973</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>252.40807859596981</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>347.57156672451208</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>303.11639062697122</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>342.91914503356259</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>326.29391633810258</v>
+        <v>265.6287409710601</v>
       </c>
       <c r="C2">
-        <v>291.0203437315057</v>
+        <v>290.73128431545058</v>
       </c>
       <c r="D2">
-        <v>248.04294132575649</v>
+        <v>262.21989162037539</v>
       </c>
       <c r="E2">
-        <v>254.73541149430756</v>
+        <v>297.51363840877923</v>
       </c>
       <c r="F2">
         <v>239.01999215005608</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>328.33922706149491</v>
+        <v>261.16854873030132</v>
       </c>
       <c r="C3">
-        <v>308.20730669548391</v>
+        <v>295.99799930273218</v>
       </c>
       <c r="D3">
-        <v>264.36417175052236</v>
+        <v>261.79447028965973</v>
       </c>
       <c r="E3">
-        <v>256.45419770641098</v>
+        <v>303.44048945715053</v>
       </c>
       <c r="F3">
         <v>255.32887527812051</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>326.29391633810258</v>
+        <v>285.29093073464242</v>
       </c>
       <c r="C2">
-        <v>291.0203437315057</v>
+        <v>265.6287409710601</v>
       </c>
       <c r="D2">
-        <v>248.04294132575649</v>
+        <v>284.5956040154266</v>
       </c>
       <c r="E2">
-        <v>254.73541149430756</v>
+        <v>262.21989162037539</v>
       </c>
       <c r="F2">
         <v>239.01999215005608</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>328.33922706149491</v>
+        <v>308.9846248534343</v>
       </c>
       <c r="C3">
-        <v>308.20730669548391</v>
+        <v>261.16854873030132</v>
       </c>
       <c r="D3">
-        <v>264.36417175052236</v>
+        <v>318.09569398032079</v>
       </c>
       <c r="E3">
-        <v>256.45419770641098</v>
+        <v>261.79447028965973</v>
       </c>
       <c r="F3">
         <v>255.32887527812051</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>326.2939163221015</v>
+      </c>
+      <c r="C2">
+        <v>291.02034370125631</v>
+      </c>
+      <c r="D2">
+        <v>248.04294123808984</v>
+      </c>
+      <c r="E2">
+        <v>254.73541150367623</v>
+      </c>
+      <c r="F2">
+        <v>239.01999212313589</v>
+      </c>
+      <c r="G2">
+        <v>280.92608389077589</v>
+      </c>
+      <c r="H2">
+        <v>292.15333873255292</v>
+      </c>
+      <c r="I2">
+        <v>340.53469352585842</v>
+      </c>
+      <c r="J2">
+        <v>305.07798354103682</v>
+      </c>
+      <c r="K2">
+        <v>309.39499324914823</v>
+      </c>
+      <c r="L2">
+        <v>313.95078773672935</v>
+      </c>
+      <c r="M2">
+        <v>333.49941559199783</v>
+      </c>
+      <c r="N2">
         <v>285.29093073464242</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>265.6287409710601</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>261.4307664855836</v>
+      </c>
+      <c r="Q2">
+        <v>344.99120237693558</v>
+      </c>
+      <c r="R2">
+        <v>290.73128431545058</v>
+      </c>
+      <c r="S2">
+        <v>329.54582105721636</v>
+      </c>
+      <c r="T2">
+        <v>328.71396131608424</v>
+      </c>
+      <c r="U2">
+        <v>265.57666806431337</v>
+      </c>
+      <c r="V2">
+        <v>326.58640689790866</v>
+      </c>
+      <c r="W2">
+        <v>276.81464319522092</v>
+      </c>
+      <c r="X2">
+        <v>278.42519914230803</v>
+      </c>
+      <c r="Y2">
+        <v>250.00150865997458</v>
+      </c>
+      <c r="Z2">
+        <v>275.97818332889176</v>
+      </c>
+      <c r="AA2">
+        <v>334.67453237551001</v>
+      </c>
+      <c r="AB2">
+        <v>302.76597593710386</v>
+      </c>
+      <c r="AC2">
+        <v>265.2717987877113</v>
+      </c>
+      <c r="AD2">
+        <v>280.71284072838694</v>
+      </c>
+      <c r="AE2">
+        <v>269.1584963852851</v>
+      </c>
+      <c r="AF2">
+        <v>289.66154531942959</v>
+      </c>
+      <c r="AG2">
+        <v>289.97225165073138</v>
+      </c>
+      <c r="AH2">
+        <v>344.10411716573594</v>
+      </c>
+      <c r="AI2">
+        <v>285.35600756875408</v>
+      </c>
+      <c r="AJ2">
+        <v>301.50262938295879</v>
+      </c>
+      <c r="AK2">
+        <v>317.47854744866288</v>
+      </c>
+      <c r="AL2">
+        <v>341.2708933541237</v>
+      </c>
+      <c r="AM2">
         <v>284.5956040154266</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>262.21989162037539</v>
       </c>
-      <c r="F2">
-        <v>239.01999215005608</v>
-      </c>
-      <c r="G2">
-        <v>280.92608391710587</v>
-      </c>
-      <c r="H2">
-        <v>292.15333875795938</v>
-      </c>
-      <c r="I2">
-        <v>340.53469352781303</v>
-      </c>
-      <c r="J2">
-        <v>305.07798355013119</v>
-      </c>
-      <c r="K2">
-        <v>309.39499327541955</v>
-      </c>
-      <c r="L2">
-        <v>313.9507877782379</v>
-      </c>
-      <c r="M2">
-        <v>333.49941564766937</v>
-      </c>
-      <c r="N2">
-        <v>285.29093083334044</v>
-      </c>
-      <c r="O2">
-        <v>265.62874102646367</v>
-      </c>
-      <c r="P2">
-        <v>261.43076653044864</v>
-      </c>
-      <c r="Q2">
-        <v>344.99120240926072</v>
-      </c>
-      <c r="R2">
-        <v>290.73128437066498</v>
-      </c>
-      <c r="S2">
-        <v>329.54582105729139</v>
-      </c>
-      <c r="T2">
-        <v>328.71396137076169</v>
-      </c>
-      <c r="U2">
-        <v>265.57666808015261</v>
-      </c>
-      <c r="V2">
-        <v>326.58640694016151</v>
-      </c>
-      <c r="W2">
-        <v>276.81464326622864</v>
-      </c>
-      <c r="X2">
-        <v>278.4251991405531</v>
-      </c>
-      <c r="Y2">
-        <v>250.00150867505741</v>
-      </c>
-      <c r="Z2">
-        <v>275.97818335156626</v>
-      </c>
-      <c r="AA2">
-        <v>334.67453238220048</v>
-      </c>
-      <c r="AB2">
-        <v>302.76597594096478</v>
-      </c>
-      <c r="AC2">
-        <v>265.27179883369479</v>
-      </c>
-      <c r="AD2">
-        <v>280.71284072128628</v>
-      </c>
-      <c r="AE2">
-        <v>269.1584963934522</v>
-      </c>
-      <c r="AF2">
-        <v>289.66154534456325</v>
-      </c>
-      <c r="AG2">
-        <v>289.97225180420469</v>
-      </c>
-      <c r="AH2">
-        <v>344.10411718251589</v>
-      </c>
-      <c r="AI2">
-        <v>285.35600756480852</v>
-      </c>
-      <c r="AJ2">
-        <v>301.50262945473719</v>
-      </c>
-      <c r="AK2">
-        <v>317.47854743918288</v>
-      </c>
-      <c r="AL2">
-        <v>341.27089340943371</v>
-      </c>
-      <c r="AM2">
-        <v>284.59560408405395</v>
-      </c>
-      <c r="AN2">
-        <v>262.21989171356341</v>
-      </c>
       <c r="AO2">
-        <v>274.8417854734073</v>
+        <v>274.84178541042792</v>
       </c>
       <c r="AP2">
-        <v>340.28404331251352</v>
+        <v>340.28404325107067</v>
       </c>
       <c r="AQ2">
-        <v>297.51363848668893</v>
+        <v>297.51363840877923</v>
       </c>
       <c r="AR2">
-        <v>334.34733572503944</v>
+        <v>334.34733572353446</v>
       </c>
       <c r="AS2">
-        <v>332.96272087614301</v>
+        <v>332.96272082295559</v>
       </c>
       <c r="AT2">
-        <v>265.31886320916078</v>
+        <v>265.31886315560479</v>
       </c>
       <c r="AU2">
-        <v>323.86695764487069</v>
+        <v>323.86695759716184</v>
       </c>
       <c r="AV2">
-        <v>281.90584365634726</v>
+        <v>281.90584360961134</v>
       </c>
       <c r="AW2">
-        <v>281.54053062910629</v>
+        <v>281.54053058319073</v>
       </c>
       <c r="AX2">
-        <v>247.86347522321904</v>
+        <v>247.86347518075368</v>
       </c>
       <c r="AY2">
-        <v>271.26043132898872</v>
+        <v>271.26043130077551</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>328.33922706090158</v>
+      </c>
+      <c r="C3">
+        <v>308.20730669536795</v>
+      </c>
+      <c r="D3">
+        <v>264.36417169583825</v>
+      </c>
+      <c r="E3">
+        <v>256.45419770046823</v>
+      </c>
+      <c r="F3">
+        <v>255.32887527569761</v>
+      </c>
+      <c r="G3">
+        <v>280.83431744249845</v>
+      </c>
+      <c r="H3">
+        <v>286.63858554612091</v>
+      </c>
+      <c r="I3">
+        <v>344.67365736455201</v>
+      </c>
+      <c r="J3">
+        <v>308.07789685982056</v>
+      </c>
+      <c r="K3">
+        <v>293.18449276919165</v>
+      </c>
+      <c r="L3">
+        <v>322.2995404119722</v>
+      </c>
+      <c r="M3">
+        <v>325.18642421941615</v>
+      </c>
+      <c r="N3">
         <v>308.9846248534343</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>261.16854873030132</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>296.08808042569541</v>
+      </c>
+      <c r="Q3">
+        <v>347.30439160176132</v>
+      </c>
+      <c r="R3">
+        <v>295.99799930273218</v>
+      </c>
+      <c r="S3">
+        <v>335.82773342217149</v>
+      </c>
+      <c r="T3">
+        <v>302.65770620445903</v>
+      </c>
+      <c r="U3">
+        <v>262.61777470120029</v>
+      </c>
+      <c r="V3">
+        <v>306.38474651097573</v>
+      </c>
+      <c r="W3">
+        <v>297.71390296527375</v>
+      </c>
+      <c r="X3">
+        <v>270.33686671305543</v>
+      </c>
+      <c r="Y3">
+        <v>253.07734882211213</v>
+      </c>
+      <c r="Z3">
+        <v>277.4701837841418</v>
+      </c>
+      <c r="AA3">
+        <v>343.21232963169848</v>
+      </c>
+      <c r="AB3">
+        <v>305.03979714265722</v>
+      </c>
+      <c r="AC3">
+        <v>272.09593064878806</v>
+      </c>
+      <c r="AD3">
+        <v>260.21506003804461</v>
+      </c>
+      <c r="AE3">
+        <v>266.00157583589566</v>
+      </c>
+      <c r="AF3">
+        <v>285.57561784556617</v>
+      </c>
+      <c r="AG3">
+        <v>293.76337269002886</v>
+      </c>
+      <c r="AH3">
+        <v>344.28644728195275</v>
+      </c>
+      <c r="AI3">
+        <v>317.69547552569566</v>
+      </c>
+      <c r="AJ3">
+        <v>305.25728818229231</v>
+      </c>
+      <c r="AK3">
+        <v>324.88920617780542</v>
+      </c>
+      <c r="AL3">
+        <v>334.84165159889596</v>
+      </c>
+      <c r="AM3">
         <v>318.09569398032079</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>261.79447028965973</v>
       </c>
-      <c r="F3">
-        <v>255.32887527812051</v>
-      </c>
-      <c r="G3">
-        <v>280.83431744013217</v>
-      </c>
-      <c r="H3">
-        <v>286.63858562359519</v>
-      </c>
-      <c r="I3">
-        <v>344.67365734788496</v>
-      </c>
-      <c r="J3">
-        <v>308.07789687216342</v>
-      </c>
-      <c r="K3">
-        <v>293.18449280736809</v>
-      </c>
-      <c r="L3">
-        <v>322.29954045567428</v>
-      </c>
-      <c r="M3">
-        <v>325.18668994701807</v>
-      </c>
-      <c r="N3">
-        <v>308.98462488997177</v>
-      </c>
-      <c r="O3">
-        <v>261.16854875988764</v>
-      </c>
-      <c r="P3">
-        <v>296.08808047306246</v>
-      </c>
-      <c r="Q3">
-        <v>347.30439168182011</v>
-      </c>
-      <c r="R3">
-        <v>295.99799934338034</v>
-      </c>
-      <c r="S3">
-        <v>335.82773344135433</v>
-      </c>
-      <c r="T3">
-        <v>302.65770623482547</v>
-      </c>
-      <c r="U3">
-        <v>262.61777472866186</v>
-      </c>
-      <c r="V3">
-        <v>306.38474653588673</v>
-      </c>
-      <c r="W3">
-        <v>297.71390318717567</v>
-      </c>
-      <c r="X3">
-        <v>270.33686673914457</v>
-      </c>
-      <c r="Y3">
-        <v>253.07734887033652</v>
-      </c>
-      <c r="Z3">
-        <v>277.47018381673524</v>
-      </c>
-      <c r="AA3">
-        <v>343.21232963780994</v>
-      </c>
-      <c r="AB3">
-        <v>305.03979713744047</v>
-      </c>
-      <c r="AC3">
-        <v>272.09593068361369</v>
-      </c>
-      <c r="AD3">
-        <v>260.21506006569695</v>
-      </c>
-      <c r="AE3">
-        <v>266.00157583850239</v>
-      </c>
-      <c r="AF3">
-        <v>285.57561785906614</v>
-      </c>
-      <c r="AG3">
-        <v>293.76337272600892</v>
-      </c>
-      <c r="AH3">
-        <v>344.28644728787913</v>
-      </c>
-      <c r="AI3">
-        <v>317.69547558087606</v>
-      </c>
-      <c r="AJ3">
-        <v>305.25728820760446</v>
-      </c>
-      <c r="AK3">
-        <v>324.88920621684952</v>
-      </c>
-      <c r="AL3">
-        <v>334.84165160228747</v>
-      </c>
-      <c r="AM3">
-        <v>318.09569407024975</v>
-      </c>
-      <c r="AN3">
-        <v>261.79447033531727</v>
-      </c>
       <c r="AO3">
-        <v>252.4080786389658</v>
+        <v>252.40807859596981</v>
       </c>
       <c r="AP3">
-        <v>347.57156674121745</v>
+        <v>347.57156672451208</v>
       </c>
       <c r="AQ3">
-        <v>303.44048951812715</v>
+        <v>303.44048945715053</v>
       </c>
       <c r="AR3">
-        <v>342.91914505710122</v>
+        <v>342.91914503356259</v>
       </c>
       <c r="AS3">
-        <v>312.93229159734199</v>
+        <v>312.9322915807266</v>
       </c>
       <c r="AT3">
-        <v>268.13321600198663</v>
+        <v>268.13321595604134</v>
       </c>
       <c r="AU3">
-        <v>309.6220839748558</v>
+        <v>309.62208395056746</v>
       </c>
       <c r="AV3">
-        <v>302.57753500405721</v>
+        <v>302.57753489584525</v>
       </c>
       <c r="AW3">
-        <v>282.14696351376546</v>
+        <v>282.146963483832</v>
       </c>
       <c r="AX3">
-        <v>281.22554640344282</v>
+        <v>281.22554638436634</v>
       </c>
       <c r="AY3">
-        <v>277.25452421623356</v>
+        <v>277.25452417886027</v>
       </c>
     </row>
   </sheetData>
